--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Fgf2</t>
+  </si>
+  <si>
+    <t>Sdc3</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf2</t>
-  </si>
-  <si>
-    <t>Sdc3</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H2">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J2">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.92603766666666</v>
+        <v>31.58970933333333</v>
       </c>
       <c r="N2">
-        <v>71.77811299999999</v>
+        <v>94.76912799999999</v>
       </c>
       <c r="O2">
-        <v>0.1020740841609268</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="P2">
-        <v>0.1020740841609269</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="Q2">
-        <v>9.522060544542333</v>
+        <v>32.02641600506044</v>
       </c>
       <c r="R2">
-        <v>85.69854490088099</v>
+        <v>288.237744045544</v>
       </c>
       <c r="S2">
-        <v>0.002738623894724249</v>
+        <v>0.01164721496037283</v>
       </c>
       <c r="T2">
-        <v>0.002738623894724249</v>
+        <v>0.01164721496037283</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H3">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J3">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>27.280679</v>
       </c>
       <c r="O3">
-        <v>0.03879525676877615</v>
+        <v>0.04759211581068901</v>
       </c>
       <c r="P3">
-        <v>0.03879525676877616</v>
+        <v>0.04759211581068902</v>
       </c>
       <c r="Q3">
-        <v>3.619045782580333</v>
+        <v>9.219272066685221</v>
       </c>
       <c r="R3">
-        <v>32.571412043223</v>
+        <v>82.97344860016699</v>
       </c>
       <c r="S3">
-        <v>0.001040867699791746</v>
+        <v>0.003352821106235449</v>
       </c>
       <c r="T3">
-        <v>0.001040867699791746</v>
+        <v>0.003352821106235451</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H4">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J4">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.71576166666667</v>
+        <v>69.99258933333333</v>
       </c>
       <c r="N4">
-        <v>281.147285</v>
+        <v>209.977768</v>
       </c>
       <c r="O4">
-        <v>0.3998134031568382</v>
+        <v>0.3663136922774535</v>
       </c>
       <c r="P4">
-        <v>0.3998134031568383</v>
+        <v>0.3663136922774536</v>
       </c>
       <c r="Q4">
-        <v>37.29690511233834</v>
+        <v>70.96019021914043</v>
       </c>
       <c r="R4">
-        <v>335.672146011045</v>
+        <v>638.6417119722639</v>
       </c>
       <c r="S4">
-        <v>0.0107269004499721</v>
+        <v>0.02580646516864959</v>
       </c>
       <c r="T4">
-        <v>0.01072690044997211</v>
+        <v>0.02580646516864961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H5">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I5">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J5">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.833883666666666</v>
+        <v>5.643668666666667</v>
       </c>
       <c r="N5">
-        <v>17.501651</v>
+        <v>16.931006</v>
       </c>
       <c r="O5">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="P5">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="Q5">
-        <v>2.321763187776333</v>
+        <v>5.721688623537555</v>
       </c>
       <c r="R5">
-        <v>20.895868689987</v>
+        <v>51.49519761183799</v>
       </c>
       <c r="S5">
-        <v>0.0006677584241553487</v>
+        <v>0.002080836560798177</v>
       </c>
       <c r="T5">
-        <v>0.0006677584241553488</v>
+        <v>0.002080836560798177</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H6">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I6">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J6">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.04680066666666</v>
+        <v>12.31141666666667</v>
       </c>
       <c r="N6">
-        <v>45.14040199999999</v>
+        <v>36.93425</v>
       </c>
       <c r="O6">
-        <v>0.06419317811832237</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="P6">
-        <v>0.06419317811832238</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="Q6">
-        <v>5.988310682519333</v>
+        <v>12.48161379447222</v>
       </c>
       <c r="R6">
-        <v>53.894796142674</v>
+        <v>112.33452415025</v>
       </c>
       <c r="S6">
-        <v>0.001722288011871506</v>
+        <v>0.004539254061197547</v>
       </c>
       <c r="T6">
-        <v>0.001722288011871506</v>
+        <v>0.004539254061197549</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.397979</v>
+        <v>1.013824333333333</v>
       </c>
       <c r="H7">
-        <v>1.193937</v>
+        <v>3.041473</v>
       </c>
       <c r="I7">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844482</v>
       </c>
       <c r="J7">
-        <v>0.02682976699949244</v>
+        <v>0.07044908697844485</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.782706</v>
+        <v>62.44187400000001</v>
       </c>
       <c r="N7">
-        <v>260.348118</v>
+        <v>187.325622</v>
       </c>
       <c r="O7">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785175</v>
       </c>
       <c r="P7">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785176</v>
       </c>
       <c r="Q7">
-        <v>34.53769455117401</v>
+        <v>63.305091280134</v>
       </c>
       <c r="R7">
-        <v>310.839250960566</v>
+        <v>569.745821521206</v>
       </c>
       <c r="S7">
-        <v>0.009933328518977484</v>
+        <v>0.02302249512119121</v>
       </c>
       <c r="T7">
-        <v>0.009933328518977484</v>
+        <v>0.02302249512119123</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H8">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I8">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J8">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.92603766666666</v>
+        <v>31.58970933333333</v>
       </c>
       <c r="N8">
-        <v>71.77811299999999</v>
+        <v>94.76912799999999</v>
       </c>
       <c r="O8">
-        <v>0.1020740841609268</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="P8">
-        <v>0.1020740841609269</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="Q8">
-        <v>271.534655494603</v>
+        <v>358.5090419276409</v>
       </c>
       <c r="R8">
-        <v>2443.811899451428</v>
+        <v>3226.581377348768</v>
       </c>
       <c r="S8">
-        <v>0.07809562775878974</v>
+        <v>0.1303808667166743</v>
       </c>
       <c r="T8">
-        <v>0.07809562775878977</v>
+        <v>0.1303808667166743</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H9">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I9">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J9">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>27.280679</v>
       </c>
       <c r="O9">
-        <v>0.03879525676877615</v>
+        <v>0.04759211581068901</v>
       </c>
       <c r="P9">
-        <v>0.03879525676877616</v>
+        <v>0.04759211581068902</v>
       </c>
       <c r="Q9">
         <v>103.2020690474804</v>
       </c>
       <c r="R9">
-        <v>928.8186214273238</v>
+        <v>928.818621427324</v>
       </c>
       <c r="S9">
-        <v>0.02968177433406521</v>
+        <v>0.03753203862590543</v>
       </c>
       <c r="T9">
-        <v>0.02968177433406523</v>
+        <v>0.03753203862590544</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,14 +1024,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H10">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I10">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J10">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>93.71576166666667</v>
+        <v>69.99258933333333</v>
       </c>
       <c r="N10">
-        <v>281.147285</v>
+        <v>209.977768</v>
       </c>
       <c r="O10">
-        <v>0.3998134031568382</v>
+        <v>0.3663136922774535</v>
       </c>
       <c r="P10">
-        <v>0.3998134031568383</v>
+        <v>0.3663136922774536</v>
       </c>
       <c r="Q10">
-        <v>1063.572556939718</v>
+        <v>794.3402036134009</v>
       </c>
       <c r="R10">
-        <v>9572.153012457458</v>
+        <v>7149.061832520609</v>
       </c>
       <c r="S10">
-        <v>0.3058923228415656</v>
+        <v>0.2888818749400412</v>
       </c>
       <c r="T10">
-        <v>0.3058923228415657</v>
+        <v>0.2888818749400413</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H11">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I11">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J11">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.833883666666666</v>
+        <v>5.643668666666667</v>
       </c>
       <c r="N11">
-        <v>17.501651</v>
+        <v>16.931006</v>
       </c>
       <c r="O11">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="P11">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="Q11">
-        <v>66.2082712437951</v>
+        <v>64.04953667961512</v>
       </c>
       <c r="R11">
-        <v>595.8744411941559</v>
+        <v>576.4458301165361</v>
       </c>
       <c r="S11">
-        <v>0.01904205006977894</v>
+        <v>0.02329323149058851</v>
       </c>
       <c r="T11">
-        <v>0.01904205006977894</v>
+        <v>0.02329323149058852</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H12">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I12">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J12">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.04680066666666</v>
+        <v>12.31141666666667</v>
       </c>
       <c r="N12">
-        <v>45.14040199999999</v>
+        <v>36.93425</v>
       </c>
       <c r="O12">
-        <v>0.06419317811832237</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="P12">
-        <v>0.06419317811832238</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="Q12">
-        <v>170.7649169595457</v>
+        <v>139.7212664214445</v>
       </c>
       <c r="R12">
-        <v>1536.884252635911</v>
+        <v>1257.491397793</v>
       </c>
       <c r="S12">
-        <v>0.04911341193204854</v>
+        <v>0.05081316698967968</v>
       </c>
       <c r="T12">
-        <v>0.04911341193204856</v>
+        <v>0.05081316698967969</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.34891866666666</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H13">
-        <v>34.04675599999999</v>
+        <v>34.046756</v>
       </c>
       <c r="I13">
-        <v>0.7650877144845757</v>
+        <v>0.7886188286984264</v>
       </c>
       <c r="J13">
-        <v>0.7650877144845759</v>
+        <v>0.7886188286984265</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>86.782706</v>
+        <v>62.44187400000001</v>
       </c>
       <c r="N13">
-        <v>260.348118</v>
+        <v>187.325622</v>
       </c>
       <c r="O13">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785175</v>
       </c>
       <c r="P13">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785176</v>
       </c>
       <c r="Q13">
-        <v>984.8898720672452</v>
+        <v>708.6477494202481</v>
       </c>
       <c r="R13">
-        <v>8864.008848605206</v>
+        <v>6377.829744782232</v>
       </c>
       <c r="S13">
-        <v>0.2832625275483276</v>
+        <v>0.2577176499355372</v>
       </c>
       <c r="T13">
-        <v>0.2832625275483277</v>
+        <v>0.2577176499355373</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H14">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I14">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J14">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.92603766666666</v>
+        <v>31.58970933333333</v>
       </c>
       <c r="N14">
-        <v>71.77811299999999</v>
+        <v>94.76912799999999</v>
       </c>
       <c r="O14">
-        <v>0.1020740841609268</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="P14">
-        <v>0.1020740841609269</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="Q14">
-        <v>2.859998912485</v>
+        <v>46.85894282640267</v>
       </c>
       <c r="R14">
-        <v>25.739990212365</v>
+        <v>421.730485437624</v>
       </c>
       <c r="S14">
-        <v>0.0008225595000134756</v>
+        <v>0.01704143791264983</v>
       </c>
       <c r="T14">
-        <v>0.0008225595000134759</v>
+        <v>0.01704143791264983</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H15">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I15">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J15">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>27.280679</v>
       </c>
       <c r="O15">
-        <v>0.03879525676877615</v>
+        <v>0.04759211581068901</v>
       </c>
       <c r="P15">
-        <v>0.03879525676877616</v>
+        <v>0.04759211581068902</v>
       </c>
       <c r="Q15">
-        <v>1.086998654755</v>
+        <v>13.48903176070633</v>
       </c>
       <c r="R15">
-        <v>9.782987892794999</v>
+        <v>121.401285846357</v>
       </c>
       <c r="S15">
-        <v>0.0003126298636224684</v>
+        <v>0.004905627045480782</v>
       </c>
       <c r="T15">
-        <v>0.0003126298636224685</v>
+        <v>0.004905627045480784</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H16">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I16">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J16">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.71576166666667</v>
+        <v>69.99258933333333</v>
       </c>
       <c r="N16">
-        <v>281.147285</v>
+        <v>209.977768</v>
       </c>
       <c r="O16">
-        <v>0.3998134031568382</v>
+        <v>0.3663136922774535</v>
       </c>
       <c r="P16">
-        <v>0.3998134031568383</v>
+        <v>0.3663136922774536</v>
       </c>
       <c r="Q16">
-        <v>11.202313570825</v>
+        <v>103.8242773060827</v>
       </c>
       <c r="R16">
-        <v>100.820822137425</v>
+        <v>934.4184957547441</v>
       </c>
       <c r="S16">
-        <v>0.00322187865512355</v>
+        <v>0.03775832037210251</v>
       </c>
       <c r="T16">
-        <v>0.003221878655123551</v>
+        <v>0.03775832037210253</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H17">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I17">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J17">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.833883666666666</v>
+        <v>5.643668666666667</v>
       </c>
       <c r="N17">
-        <v>17.501651</v>
+        <v>16.931006</v>
       </c>
       <c r="O17">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="P17">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="Q17">
-        <v>0.697353284095</v>
+        <v>8.371597997055334</v>
       </c>
       <c r="R17">
-        <v>6.276179556854999</v>
+        <v>75.344381973498</v>
       </c>
       <c r="S17">
-        <v>0.0002005646107744619</v>
+        <v>0.003044543024050003</v>
       </c>
       <c r="T17">
-        <v>0.000200564610774462</v>
+        <v>0.003044543024050004</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H18">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I18">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J18">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.04680066666666</v>
+        <v>12.31141666666667</v>
       </c>
       <c r="N18">
-        <v>45.14040199999999</v>
+        <v>36.93425</v>
       </c>
       <c r="O18">
-        <v>0.06419317811832237</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="P18">
-        <v>0.06419317811832238</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="Q18">
-        <v>1.79861931769</v>
+        <v>18.26227533808333</v>
       </c>
       <c r="R18">
-        <v>16.18757385921</v>
+        <v>164.36047804275</v>
       </c>
       <c r="S18">
-        <v>0.0005172978913436648</v>
+        <v>0.006641537613655019</v>
       </c>
       <c r="T18">
-        <v>0.000517297891343665</v>
+        <v>0.00664153761365502</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.119535</v>
+        <v>1.483361</v>
       </c>
       <c r="H19">
-        <v>0.358605</v>
+        <v>4.450083</v>
       </c>
       <c r="I19">
-        <v>0.008058455843861933</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="J19">
-        <v>0.008058455843861934</v>
+        <v>0.1030764647025631</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>86.782706</v>
+        <v>62.44187400000001</v>
       </c>
       <c r="N19">
-        <v>260.348118</v>
+        <v>187.325622</v>
       </c>
       <c r="O19">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785175</v>
       </c>
       <c r="P19">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785176</v>
       </c>
       <c r="Q19">
-        <v>10.37357076171</v>
+        <v>92.62384065851401</v>
       </c>
       <c r="R19">
-        <v>93.36213685539001</v>
+        <v>833.6145659266261</v>
       </c>
       <c r="S19">
-        <v>0.002983525322984311</v>
+        <v>0.03368499873462497</v>
       </c>
       <c r="T19">
-        <v>0.002983525322984312</v>
+        <v>0.03368499873462498</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H20">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I20">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J20">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.92603766666666</v>
+        <v>31.58970933333333</v>
       </c>
       <c r="N20">
-        <v>71.77811299999999</v>
+        <v>94.76912799999999</v>
       </c>
       <c r="O20">
-        <v>0.1020740841609268</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="P20">
-        <v>0.1020740841609269</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="Q20">
-        <v>56.92230063188654</v>
+        <v>9.919147670860445</v>
       </c>
       <c r="R20">
-        <v>512.300705686979</v>
+        <v>89.272329037744</v>
       </c>
       <c r="S20">
-        <v>0.01637132760540059</v>
+        <v>0.00360734854402498</v>
       </c>
       <c r="T20">
-        <v>0.0163713276054006</v>
+        <v>0.003607348544024981</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H21">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I21">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J21">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>27.280679</v>
       </c>
       <c r="O21">
-        <v>0.03879525676877615</v>
+        <v>0.04759211581068901</v>
       </c>
       <c r="P21">
-        <v>0.03879525676877616</v>
+        <v>0.04759211581068902</v>
       </c>
       <c r="Q21">
-        <v>21.63443627279522</v>
+        <v>2.855371672960222</v>
       </c>
       <c r="R21">
-        <v>194.709926455157</v>
+        <v>25.698345056642</v>
       </c>
       <c r="S21">
-        <v>0.006222244003638995</v>
+        <v>0.001038428017092896</v>
       </c>
       <c r="T21">
-        <v>0.006222244003638999</v>
+        <v>0.001038428017092896</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H22">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I22">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J22">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>93.71576166666667</v>
+        <v>69.99258933333333</v>
       </c>
       <c r="N22">
-        <v>281.147285</v>
+        <v>209.977768</v>
       </c>
       <c r="O22">
-        <v>0.3998134031568382</v>
+        <v>0.3663136922774535</v>
       </c>
       <c r="P22">
-        <v>0.3998134031568383</v>
+        <v>0.3663136922774536</v>
       </c>
       <c r="Q22">
-        <v>222.9586375251839</v>
+        <v>21.97762638894044</v>
       </c>
       <c r="R22">
-        <v>2006.627737726655</v>
+        <v>197.798637500464</v>
       </c>
       <c r="S22">
-        <v>0.06412476053952447</v>
+        <v>0.007992718849037156</v>
       </c>
       <c r="T22">
-        <v>0.06412476053952451</v>
+        <v>0.007992718849037159</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H23">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I23">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J23">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.833883666666666</v>
+        <v>5.643668666666667</v>
       </c>
       <c r="N23">
-        <v>17.501651</v>
+        <v>16.931006</v>
       </c>
       <c r="O23">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="P23">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="Q23">
-        <v>13.87935957269255</v>
+        <v>1.772108198887556</v>
       </c>
       <c r="R23">
-        <v>124.914236154233</v>
+        <v>15.948973789988</v>
       </c>
       <c r="S23">
-        <v>0.003991819374749889</v>
+        <v>0.000644471898517186</v>
       </c>
       <c r="T23">
-        <v>0.003991819374749891</v>
+        <v>0.0006444718985171861</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H24">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I24">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J24">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.04680066666666</v>
+        <v>12.31141666666667</v>
       </c>
       <c r="N24">
-        <v>45.14040199999999</v>
+        <v>36.93425</v>
       </c>
       <c r="O24">
-        <v>0.06419317811832237</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="P24">
-        <v>0.06419317811832238</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="Q24">
-        <v>35.79775820086288</v>
+        <v>3.865776625722222</v>
       </c>
       <c r="R24">
-        <v>322.179823807766</v>
+        <v>34.7919896315</v>
       </c>
       <c r="S24">
-        <v>0.01029573331610821</v>
+        <v>0.001405887294458957</v>
       </c>
       <c r="T24">
-        <v>0.01029573331610822</v>
+        <v>0.001405887294458958</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>2.379094333333333</v>
+        <v>0.3139993333333334</v>
       </c>
       <c r="H25">
-        <v>7.137283</v>
+        <v>0.941998</v>
       </c>
       <c r="I25">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="J25">
-        <v>0.1603867204881316</v>
+        <v>0.02181932867249556</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.782706</v>
+        <v>62.44187400000001</v>
       </c>
       <c r="N25">
-        <v>260.348118</v>
+        <v>187.325622</v>
       </c>
       <c r="O25">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785175</v>
       </c>
       <c r="P25">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785176</v>
       </c>
       <c r="Q25">
-        <v>206.4642440759327</v>
+        <v>19.606706808084</v>
       </c>
       <c r="R25">
-        <v>1858.178196683394</v>
+        <v>176.460361272756</v>
       </c>
       <c r="S25">
-        <v>0.0593808356487094</v>
+        <v>0.00713047406936438</v>
       </c>
       <c r="T25">
-        <v>0.05938083564870942</v>
+        <v>0.007130474069364383</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H26">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I26">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J26">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.92603766666666</v>
+        <v>31.58970933333333</v>
       </c>
       <c r="N26">
-        <v>71.77811299999999</v>
+        <v>94.76912799999999</v>
       </c>
       <c r="O26">
-        <v>0.1020740841609268</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="P26">
-        <v>0.1020740841609269</v>
+        <v>0.1653281179348216</v>
       </c>
       <c r="Q26">
-        <v>3.124732543920777</v>
+        <v>7.290157291012444</v>
       </c>
       <c r="R26">
-        <v>28.12259289528699</v>
+        <v>65.61141561911199</v>
       </c>
       <c r="S26">
-        <v>0.0008986990966265939</v>
+        <v>0.002651249801099652</v>
       </c>
       <c r="T26">
-        <v>0.0008986990966265941</v>
+        <v>0.002651249801099652</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H27">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I27">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J27">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>27.280679</v>
       </c>
       <c r="O27">
-        <v>0.03879525676877615</v>
+        <v>0.04759211581068901</v>
       </c>
       <c r="P27">
-        <v>0.03879525676877616</v>
+        <v>0.04759211581068902</v>
       </c>
       <c r="Q27">
-        <v>1.187615861280111</v>
+        <v>2.098578356821222</v>
       </c>
       <c r="R27">
-        <v>10.688542751521</v>
+        <v>18.887205211391</v>
       </c>
       <c r="S27">
-        <v>0.0003415682099731445</v>
+        <v>0.0007632010159744581</v>
       </c>
       <c r="T27">
-        <v>0.0003415682099731446</v>
+        <v>0.0007632010159744582</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H28">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I28">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J28">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>93.71576166666667</v>
+        <v>69.99258933333333</v>
       </c>
       <c r="N28">
-        <v>281.147285</v>
+        <v>209.977768</v>
       </c>
       <c r="O28">
-        <v>0.3998134031568382</v>
+        <v>0.3663136922774535</v>
       </c>
       <c r="P28">
-        <v>0.3998134031568383</v>
+        <v>0.3663136922774536</v>
       </c>
       <c r="Q28">
-        <v>12.23924723507944</v>
+        <v>16.15263312685244</v>
       </c>
       <c r="R28">
-        <v>110.153225115715</v>
+        <v>145.373698141672</v>
       </c>
       <c r="S28">
-        <v>0.003520109410629387</v>
+        <v>0.005874312947623079</v>
       </c>
       <c r="T28">
-        <v>0.003520109410629389</v>
+        <v>0.005874312947623081</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H29">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I29">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J29">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.833883666666666</v>
+        <v>5.643668666666667</v>
       </c>
       <c r="N29">
-        <v>17.501651</v>
+        <v>16.931006</v>
       </c>
       <c r="O29">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="P29">
-        <v>0.02488871499211981</v>
+        <v>0.02953674277474804</v>
       </c>
       <c r="Q29">
-        <v>0.7619032622387776</v>
+        <v>1.302425161441556</v>
       </c>
       <c r="R29">
-        <v>6.857129360148999</v>
+        <v>11.721826452974</v>
       </c>
       <c r="S29">
-        <v>0.0002191297219414771</v>
+        <v>0.0004736598007941681</v>
       </c>
       <c r="T29">
-        <v>0.0002191297219414772</v>
+        <v>0.0004736598007941682</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H30">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I30">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J30">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>15.04680066666666</v>
+        <v>12.31141666666667</v>
       </c>
       <c r="N30">
-        <v>45.14040199999999</v>
+        <v>36.93425</v>
       </c>
       <c r="O30">
-        <v>0.06419317811832237</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="P30">
-        <v>0.06419317811832238</v>
+        <v>0.06443311412377019</v>
       </c>
       <c r="Q30">
-        <v>1.965107151466444</v>
+        <v>2.841183596472222</v>
       </c>
       <c r="R30">
-        <v>17.685964363198</v>
+        <v>25.57065236825</v>
       </c>
       <c r="S30">
-        <v>0.000565181178540613</v>
+        <v>0.001033268164778986</v>
       </c>
       <c r="T30">
-        <v>0.0005651811785406132</v>
+        <v>0.001033268164778986</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.1305996666666666</v>
+        <v>0.2307763333333333</v>
       </c>
       <c r="H31">
-        <v>0.391799</v>
+        <v>0.692329</v>
       </c>
       <c r="I31">
-        <v>0.008804380700685325</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="J31">
-        <v>0.008804380700685326</v>
+        <v>0.01603629094807014</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>86.782706</v>
+        <v>62.44187400000001</v>
       </c>
       <c r="N31">
-        <v>260.348118</v>
+        <v>187.325622</v>
       </c>
       <c r="O31">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785175</v>
       </c>
       <c r="P31">
-        <v>0.3702353628030166</v>
+        <v>0.3267962170785176</v>
       </c>
       <c r="Q31">
-        <v>11.33379247603133</v>
+        <v>14.410106728182</v>
       </c>
       <c r="R31">
-        <v>102.004132284282</v>
+        <v>129.690960553638</v>
       </c>
       <c r="S31">
-        <v>0.003259693082974108</v>
+        <v>0.005240599217799796</v>
       </c>
       <c r="T31">
-        <v>0.003259693082974109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H32">
-        <v>1.372081</v>
-      </c>
-      <c r="I32">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J32">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>23.92603766666666</v>
-      </c>
-      <c r="N32">
-        <v>71.77811299999999</v>
-      </c>
-      <c r="O32">
-        <v>0.1020740841609268</v>
-      </c>
-      <c r="P32">
-        <v>0.1020740841609269</v>
-      </c>
-      <c r="Q32">
-        <v>10.94282056257255</v>
-      </c>
-      <c r="R32">
-        <v>98.48538506315299</v>
-      </c>
-      <c r="S32">
-        <v>0.003147246305372177</v>
-      </c>
-      <c r="T32">
-        <v>0.003147246305372179</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H33">
-        <v>1.372081</v>
-      </c>
-      <c r="I33">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J33">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>9.093559666666666</v>
-      </c>
-      <c r="N33">
-        <v>27.280679</v>
-      </c>
-      <c r="O33">
-        <v>0.03879525676877615</v>
-      </c>
-      <c r="P33">
-        <v>0.03879525676877616</v>
-      </c>
-      <c r="Q33">
-        <v>4.159033480333222</v>
-      </c>
-      <c r="R33">
-        <v>37.431301322999</v>
-      </c>
-      <c r="S33">
-        <v>0.001196172657684584</v>
-      </c>
-      <c r="T33">
-        <v>0.001196172657684584</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H34">
-        <v>1.372081</v>
-      </c>
-      <c r="I34">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J34">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>93.71576166666667</v>
-      </c>
-      <c r="N34">
-        <v>281.147285</v>
-      </c>
-      <c r="O34">
-        <v>0.3998134031568382</v>
-      </c>
-      <c r="P34">
-        <v>0.3998134031568383</v>
-      </c>
-      <c r="Q34">
-        <v>42.86187199445389</v>
-      </c>
-      <c r="R34">
-        <v>385.756847950085</v>
-      </c>
-      <c r="S34">
-        <v>0.01232743126002308</v>
-      </c>
-      <c r="T34">
-        <v>0.01232743126002308</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H35">
-        <v>1.372081</v>
-      </c>
-      <c r="I35">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J35">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>5.833883666666666</v>
-      </c>
-      <c r="N35">
-        <v>17.501651</v>
-      </c>
-      <c r="O35">
-        <v>0.02488871499211981</v>
-      </c>
-      <c r="P35">
-        <v>0.02488871499211981</v>
-      </c>
-      <c r="Q35">
-        <v>2.668186978414556</v>
-      </c>
-      <c r="R35">
-        <v>24.013682805731</v>
-      </c>
-      <c r="S35">
-        <v>0.0007673927907196903</v>
-      </c>
-      <c r="T35">
-        <v>0.0007673927907196906</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H36">
-        <v>1.372081</v>
-      </c>
-      <c r="I36">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J36">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>15.04680066666666</v>
-      </c>
-      <c r="N36">
-        <v>45.14040199999999</v>
-      </c>
-      <c r="O36">
-        <v>0.06419317811832237</v>
-      </c>
-      <c r="P36">
-        <v>0.06419317811832238</v>
-      </c>
-      <c r="Q36">
-        <v>6.881809768506888</v>
-      </c>
-      <c r="R36">
-        <v>61.93628791656199</v>
-      </c>
-      <c r="S36">
-        <v>0.00197926578840983</v>
-      </c>
-      <c r="T36">
-        <v>0.001979265788409831</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.4573603333333334</v>
-      </c>
-      <c r="H37">
-        <v>1.372081</v>
-      </c>
-      <c r="I37">
-        <v>0.03083296148325295</v>
-      </c>
-      <c r="J37">
-        <v>0.03083296148325296</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>86.782706</v>
-      </c>
-      <c r="N37">
-        <v>260.348118</v>
-      </c>
-      <c r="O37">
-        <v>0.3702353628030166</v>
-      </c>
-      <c r="P37">
-        <v>0.3702353628030166</v>
-      </c>
-      <c r="Q37">
-        <v>39.69096734372867</v>
-      </c>
-      <c r="R37">
-        <v>357.218706093558</v>
-      </c>
-      <c r="S37">
-        <v>0.01141545268104359</v>
-      </c>
-      <c r="T37">
-        <v>0.0114154526810436</v>
+        <v>0.005240599217799797</v>
       </c>
     </row>
   </sheetData>
